--- a/Planilhas_Física/Relatorio4(Lançamento).xlsx
+++ b/Planilhas_Física/Relatorio4(Lançamento).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T-Gamer\Documents\Desenvolvimento 2022\Excel Estudos\Planilhas_Física\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C308B3-E919-4737-B2D1-96B84A648ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BD8F1F-58E8-4888-8015-5967513B0080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FFDFF4BB-838A-45FD-B600-B198AEA95D50}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>Altura</t>
   </si>
@@ -73,9 +73,6 @@
     <t>Metro</t>
   </si>
   <si>
-    <t>Distancia na marca no papel(m)</t>
-  </si>
-  <si>
     <t>Distancia 3</t>
   </si>
   <si>
@@ -92,13 +89,46 @@
   </si>
   <si>
     <t xml:space="preserve">      Marcações </t>
+  </si>
+  <si>
+    <t>Desvio Padrão</t>
+  </si>
+  <si>
+    <t>Superior</t>
+  </si>
+  <si>
+    <t>Inferior</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Marcações</t>
+  </si>
+  <si>
+    <t>Distancia(m)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alcance </t>
+  </si>
+  <si>
+    <t>Intervalo (8,32 a 8,36)</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Distancia</t>
+  </si>
+  <si>
+    <t>Tempo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,8 +149,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,8 +171,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -251,12 +295,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -281,9 +338,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -294,22 +348,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -317,7 +388,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -627,51 +706,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{923FCA3D-AAC6-4048-B5B0-C048056B4C98}">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25:I25"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="30.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.5703125" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="14"/>
+      <c r="H1" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>24</v>
+      </c>
       <c r="L1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -685,18 +771,18 @@
       <c r="D2" s="3">
         <v>1</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="13">
         <f>B7+135.4</f>
         <v>179</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="13">
         <f>E2*0.01</f>
         <v>1.79</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="13">
         <v>1</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="13">
         <v>4.28</v>
       </c>
       <c r="K2" s="2" t="s">
@@ -709,7 +795,7 @@
         <v>2.76</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -723,18 +809,18 @@
       <c r="D3" s="3">
         <v>2</v>
       </c>
-      <c r="E3" s="1">
-        <f t="shared" ref="E3:E11" si="1">B8+135.4</f>
+      <c r="E3" s="13">
+        <f>B8+135.4</f>
         <v>161.30000000000001</v>
       </c>
-      <c r="F3" s="9">
-        <f t="shared" ref="F3:F5" si="2">E3*0.01</f>
+      <c r="F3" s="5">
+        <f t="shared" ref="F3:F5" si="1">E3*0.01</f>
         <v>1.6130000000000002</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="13">
         <v>2</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="5">
         <v>4.2229999999999999</v>
       </c>
       <c r="K3" s="2" t="s">
@@ -747,7 +833,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -761,22 +847,22 @@
       <c r="D4" s="3">
         <v>3</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="13">
+        <f t="shared" ref="E4:E11" si="2">B9+135.4</f>
+        <v>168.4</v>
+      </c>
+      <c r="F4" s="5">
         <f t="shared" si="1"/>
-        <v>168.4</v>
-      </c>
-      <c r="F4" s="9">
-        <f t="shared" si="2"/>
         <v>1.6840000000000002</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="13">
         <v>3</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="5">
         <v>4.2850000000000001</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L4" s="6">
         <v>-14</v>
@@ -785,7 +871,7 @@
         <v>-0.14000000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -799,21 +885,21 @@
       <c r="D5" s="3">
         <v>4</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="13">
+        <f t="shared" si="2"/>
+        <v>159.5</v>
+      </c>
+      <c r="F5" s="5">
         <f t="shared" si="1"/>
-        <v>159.5</v>
-      </c>
-      <c r="F5" s="9">
-        <f t="shared" si="2"/>
         <v>1.595</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="13">
         <v>4</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="13">
         <v>4.25</v>
       </c>
-      <c r="J5" s="13"/>
+      <c r="J5" s="12"/>
       <c r="K5" s="2" t="s">
         <v>5</v>
       </c>
@@ -826,7 +912,7 @@
         <v>4.08</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -834,22 +920,22 @@
       <c r="D6" s="3">
         <v>5</v>
       </c>
-      <c r="E6" s="1">
-        <f t="shared" si="1"/>
+      <c r="E6" s="13">
+        <f>B11+135.4</f>
         <v>158.5</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="5">
         <f t="shared" ref="F6:F11" si="3">E6*0.01</f>
         <v>1.585</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="13">
         <v>5</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="5">
         <v>4.2569999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -860,25 +946,25 @@
         <f>B7*0.01</f>
         <v>0.436</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>6</v>
       </c>
-      <c r="E7" s="1">
-        <f t="shared" si="1"/>
+      <c r="E7" s="13">
+        <f t="shared" si="2"/>
         <v>156.1</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="5">
         <f t="shared" si="3"/>
         <v>1.5609999999999999</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="13">
         <v>6</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="5">
         <v>4.2549999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -886,28 +972,28 @@
         <v>25.9</v>
       </c>
       <c r="C8" s="9">
-        <f t="shared" ref="C8:C16" si="4">B8*0.01</f>
+        <f>B8*0.01</f>
         <v>0.25900000000000001</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>7</v>
       </c>
-      <c r="E8" s="1">
-        <f t="shared" si="1"/>
+      <c r="E8" s="13">
+        <f t="shared" si="2"/>
         <v>159.4</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="5">
         <f t="shared" si="3"/>
         <v>1.5940000000000001</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="13">
         <v>7</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="5">
         <v>4.2549999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>3</v>
       </c>
@@ -915,28 +1001,28 @@
         <v>33</v>
       </c>
       <c r="C9" s="6">
-        <f t="shared" si="4"/>
+        <f>B9*0.01</f>
         <v>0.33</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <v>8</v>
       </c>
-      <c r="E9" s="1">
-        <f t="shared" si="1"/>
+      <c r="E9" s="13">
+        <f t="shared" si="2"/>
         <v>156.1</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="5">
         <f t="shared" si="3"/>
         <v>1.5609999999999999</v>
       </c>
       <c r="H9" s="3">
         <v>8</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="5">
         <v>4.2320000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>4</v>
       </c>
@@ -944,28 +1030,28 @@
         <v>24.1</v>
       </c>
       <c r="C10" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="C10:C16" si="4">B10*0.01</f>
         <v>0.24100000000000002</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <v>9</v>
       </c>
-      <c r="E10" s="1">
-        <f t="shared" si="1"/>
+      <c r="E10" s="13">
+        <f t="shared" si="2"/>
         <v>162.20000000000002</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="5">
         <f t="shared" si="3"/>
         <v>1.6220000000000001</v>
       </c>
       <c r="H10" s="3">
         <v>9</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="5">
         <v>4.3029999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>5</v>
       </c>
@@ -976,25 +1062,25 @@
         <f t="shared" si="4"/>
         <v>0.23100000000000001</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <v>10</v>
       </c>
-      <c r="E11" s="1">
-        <f t="shared" si="1"/>
+      <c r="E11" s="13">
+        <f t="shared" si="2"/>
         <v>159.4</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="5">
         <f t="shared" si="3"/>
         <v>1.5940000000000001</v>
       </c>
       <c r="H11" s="4">
         <v>10</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="5">
         <v>4.2679999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>6</v>
       </c>
@@ -1005,26 +1091,32 @@
         <f t="shared" si="4"/>
         <v>0.20699999999999999</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="21">
         <f>AVERAGE(E2:E11)</f>
         <v>161.99</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="22">
         <f>AVERAGE(F2:F11)</f>
         <v>1.6198999999999999</v>
       </c>
-      <c r="H12" s="20" t="s">
+      <c r="H12" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="16">
         <f>AVERAGE(I2:I11)</f>
         <v>4.2607999999999997</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>7</v>
       </c>
@@ -1035,8 +1127,16 @@
         <f t="shared" si="4"/>
         <v>0.24</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M13" s="19">
+        <f>I25+I26</f>
+        <v>8.2849375686891253</v>
+      </c>
+      <c r="N13" s="19">
+        <f>I25-I26</f>
+        <v>8.2366624313108741</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>8</v>
       </c>
@@ -1047,18 +1147,24 @@
         <f t="shared" si="4"/>
         <v>0.20699999999999999</v>
       </c>
-      <c r="H14" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" s="14" t="s">
+      <c r="H14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="17"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J14" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="15"/>
+      <c r="M14" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>9</v>
       </c>
@@ -1069,20 +1175,28 @@
         <f t="shared" si="4"/>
         <v>0.26800000000000002</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="13">
         <v>1</v>
       </c>
-      <c r="I15" s="14">
-        <f>4.28 +$J$15</f>
-        <v>8.36</v>
-      </c>
-      <c r="J15" s="18">
-        <f>4.08</f>
-        <v>4.08</v>
-      </c>
-      <c r="K15" s="19"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I15" s="5">
+        <f>I2 +$J$15</f>
+        <v>8.2800000000000011</v>
+      </c>
+      <c r="J15" s="25">
+        <f>4</f>
+        <v>4</v>
+      </c>
+      <c r="K15" s="26"/>
+      <c r="M15" s="5">
+        <f>I15</f>
+        <v>8.2800000000000011</v>
+      </c>
+      <c r="N15" s="13" t="str">
+        <f>IF(AND($N$13&lt;=I15,I15&lt;=$M$13),"Ok","Não")</f>
+        <v>Ok</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>10</v>
       </c>
@@ -1093,43 +1207,74 @@
         <f t="shared" si="4"/>
         <v>0.24</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="13">
         <v>2</v>
       </c>
       <c r="I16" s="5">
-        <f xml:space="preserve"> 4.223 +J15</f>
-        <v>8.3030000000000008</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H17" s="14">
+        <f t="shared" ref="I16:I24" si="5">I3 +$J$15</f>
+        <v>8.222999999999999</v>
+      </c>
+      <c r="M16" s="5">
+        <f t="shared" ref="M16:M24" si="6">I16</f>
+        <v>8.222999999999999</v>
+      </c>
+      <c r="N16" s="13" t="str">
+        <f t="shared" ref="N16:N24" si="7">IF(AND($N$13&lt;=I16,I16&lt;=$M$13),"Ok","Não")</f>
+        <v>Não</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="19">
+        <f>AVERAGE(C7:C16)</f>
+        <v>0.26590000000000008</v>
+      </c>
+      <c r="H17" s="13">
         <v>3</v>
       </c>
       <c r="I17" s="5">
-        <f>4.285+J15</f>
-        <v>8.3650000000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>8.2850000000000001</v>
+      </c>
+      <c r="M17" s="5">
+        <f t="shared" si="6"/>
+        <v>8.2850000000000001</v>
+      </c>
+      <c r="N17" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v>Não</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="13">
         <v>4</v>
       </c>
-      <c r="I18" s="14">
-        <f>4.25+J15</f>
-        <v>8.33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I18" s="5">
+        <f t="shared" si="5"/>
+        <v>8.25</v>
+      </c>
+      <c r="M18" s="5">
+        <f t="shared" si="6"/>
+        <v>8.25</v>
+      </c>
+      <c r="N18" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v>Ok</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="23">
         <v>9.7899999999999991</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -1139,76 +1284,161 @@
         <f>F12*(SQRT(B19/(2*C2)))</f>
         <v>7.1679430993695812</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="13">
         <v>5</v>
       </c>
       <c r="I19" s="5">
-        <f>4.257+J15</f>
-        <v>8.3369999999999997</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H20" s="14">
+        <f t="shared" si="5"/>
+        <v>8.2569999999999997</v>
+      </c>
+      <c r="M19" s="5">
+        <f t="shared" si="6"/>
+        <v>8.2569999999999997</v>
+      </c>
+      <c r="N19" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v>Ok</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C20" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="13">
+        <f>D19*SQRT(2*C2/B19)</f>
+        <v>1.6198999999999999</v>
+      </c>
+      <c r="H20" s="13">
         <v>6</v>
       </c>
       <c r="I20" s="5">
-        <f>4.255+J15</f>
-        <v>8.3350000000000009</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H21" s="14">
+        <f t="shared" si="5"/>
+        <v>8.254999999999999</v>
+      </c>
+      <c r="M20" s="5">
+        <f t="shared" si="6"/>
+        <v>8.254999999999999</v>
+      </c>
+      <c r="N20" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v>Ok</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C21" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="13">
+        <f>SQRT(2*C2/B19)</f>
+        <v>0.22599230735278433</v>
+      </c>
+      <c r="H21" s="13">
         <v>7</v>
       </c>
       <c r="I21" s="5">
-        <f>4.255+J15</f>
-        <v>8.3350000000000009</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H22" s="14">
+        <f t="shared" si="5"/>
+        <v>8.254999999999999</v>
+      </c>
+      <c r="M21" s="5">
+        <f t="shared" si="6"/>
+        <v>8.254999999999999</v>
+      </c>
+      <c r="N21" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v>Ok</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C22" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="13">
+        <f>D19*D21</f>
+        <v>1.6198999999999999</v>
+      </c>
+      <c r="H22" s="13">
         <v>8</v>
       </c>
       <c r="I22" s="5">
-        <f>4.232+J15</f>
-        <v>8.3120000000000012</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H23" s="14">
+        <f t="shared" si="5"/>
+        <v>8.2319999999999993</v>
+      </c>
+      <c r="M22" s="5">
+        <f t="shared" si="6"/>
+        <v>8.2319999999999993</v>
+      </c>
+      <c r="N22" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v>Não</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H23" s="13">
         <v>9</v>
       </c>
       <c r="I23" s="5">
-        <f>4.303+J15</f>
-        <v>8.3829999999999991</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H24" s="14">
+        <f t="shared" si="5"/>
+        <v>8.3030000000000008</v>
+      </c>
+      <c r="M23" s="5">
+        <f t="shared" si="6"/>
+        <v>8.3030000000000008</v>
+      </c>
+      <c r="N23" s="13" t="str">
+        <f>IF(AND($N$13&lt;=I23,I23&lt;=$M$13),"Ok","Não")</f>
+        <v>Não</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H24" s="13">
         <v>10</v>
       </c>
       <c r="I24" s="5">
-        <f>4.268+J15</f>
-        <v>8.347999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C25" s="12"/>
-      <c r="H25" s="20" t="s">
+        <f t="shared" si="5"/>
+        <v>8.2680000000000007</v>
+      </c>
+      <c r="M24" s="5">
+        <f t="shared" si="6"/>
+        <v>8.2680000000000007</v>
+      </c>
+      <c r="N24" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v>Ok</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C25" s="11"/>
+      <c r="H25" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I25" s="22">
+      <c r="I25" s="18">
         <f>AVERAGE(I15:I24)</f>
-        <v>8.340799999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H26" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I26" s="21">
+        <v>8.2607999999999997</v>
+      </c>
+      <c r="M25" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="N25" s="13">
+        <f>COUNTIF(N15:N24,"OK")</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H26" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26" s="18">
+        <f>_xlfn.STDEV.S(I15:I24)</f>
+        <v>2.4137568689125515E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H27" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="17">
         <f>(ABS(5.48-I25)/5.48)</f>
-        <v>0.52204379562043746</v>
+        <v>0.50744525547445241</v>
       </c>
     </row>
   </sheetData>
@@ -1216,6 +1446,12 @@
     <mergeCell ref="J15:K15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="N15:N25">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Ok">
+      <formula>NOT(ISERROR(SEARCH("Ok",N15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>